--- a/Excel Workbooks/10Pi7.xlsx
+++ b/Excel Workbooks/10Pi7.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF9A46-3235-4454-80CE-647BF81BBE49}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,40 +443,40 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.07235302567171764</v>
+        <v>7.2353025671717641E-2</v>
       </c>
       <c r="B2">
-        <v>0.623902511134748</v>
+        <v>0.62390251113474804</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0.458407346410207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.45840734641020697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.3747233209938126</v>
+        <v>0.37472332099381261</v>
       </c>
       <c r="B3">
-        <v>0.248025605246619</v>
+        <v>0.24802560524661901</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3">
-        <v>14.59155902616465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14.591559026164649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8108761868822305</v>
+        <v>0.81087618688223051</v>
       </c>
       <c r="B4">
-        <v>0.8861799376688517</v>
+        <v>0.88617993766885172</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,60 +485,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.7142934555118018</v>
+        <v>0.71429345551180179</v>
       </c>
       <c r="B5">
-        <v>0.5422552074136081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.54225520741360811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.3465931030277887</v>
+        <v>0.34659310302778867</v>
       </c>
       <c r="B6">
         <v>0.1686952980758569</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.9946713504102925</v>
+        <v>0.99467135041029253</v>
       </c>
       <c r="B7">
-        <v>0.09463079105864203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9.4630791058642028E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.5418475630146741</v>
+        <v>0.54184756301467407</v>
       </c>
       <c r="B8">
-        <v>0.6142000485824046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.61420004858240462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.801694348555998</v>
+        <v>0.80169434855599797</v>
       </c>
       <c r="B9">
         <v>0.5743314885007007</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.8277948038865284</v>
+        <v>0.82779480388652837</v>
       </c>
       <c r="B10">
-        <v>0.1821898214297047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.18218982142970469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.5455798685452374</v>
+        <v>0.54557986854523743</v>
       </c>
       <c r="B11">
-        <v>0.7663516306309875</v>
+        <v>0.76635163063098755</v>
       </c>
     </row>
   </sheetData>
